--- a/PPAP MASTER File (2022).xlsx
+++ b/PPAP MASTER File (2022).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F677A-5E80-40CF-993E-B887364C9B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D4F37-4EF6-4AAB-9BF9-FB34D1AD9146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAP 2022" sheetId="4" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="251">
   <si>
     <t>Initial PPAP</t>
   </si>
@@ -858,28 +858,10 @@
     <t>Erick Melendez</t>
   </si>
   <si>
-    <t>Customer PN "32071" no esta en la base de datos</t>
-  </si>
-  <si>
-    <t>Cual CUS es Bizlink - Mexico?</t>
-  </si>
-  <si>
-    <t>Customer PN "TAPE191" no esta en la base de datos</t>
-  </si>
-  <si>
-    <t>Customer PN "TAPEPL12B" no esta en la base de datos</t>
-  </si>
-  <si>
     <t>Falta Renewal Date 2020</t>
   </si>
   <si>
     <t>2021, 2022</t>
-  </si>
-  <si>
-    <t>Cliente "Littlefuse" no esta en la base de datos</t>
-  </si>
-  <si>
-    <t>Cliente "MIM Industrial Supplier" no esta en la base de datos</t>
   </si>
   <si>
     <t>Falta Renewal Date 2022</t>
@@ -1814,16 +1796,16 @@
   </sheetPr>
   <dimension ref="A1:AD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC135" sqref="AC135"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC112" sqref="AC112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.984375E-2" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
@@ -1831,11 +1813,11 @@
     <col min="8" max="8" width="11.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="14.90625" style="2" customWidth="1"/>
     <col min="18" max="18" width="13.6328125" style="2" customWidth="1"/>
     <col min="19" max="19" width="13.08984375" style="2" customWidth="1"/>
@@ -2378,9 +2360,7 @@
         <v>44672</v>
       </c>
       <c r="AA8" s="19"/>
-      <c r="AC8" s="130" t="s">
-        <v>247</v>
-      </c>
+      <c r="AC8" s="132"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
@@ -3244,9 +3224,7 @@
         <v>44594</v>
       </c>
       <c r="AA20" s="19"/>
-      <c r="AC20" s="130" t="s">
-        <v>248</v>
-      </c>
+      <c r="AC20" s="132"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
@@ -3314,9 +3292,7 @@
         <v>44636</v>
       </c>
       <c r="AA21" s="19"/>
-      <c r="AC21" s="130" t="s">
-        <v>248</v>
-      </c>
+      <c r="AC21" s="132"/>
     </row>
     <row r="22" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
@@ -3834,9 +3810,7 @@
         <v>44672</v>
       </c>
       <c r="AA28" s="19"/>
-      <c r="AC28" s="130" t="s">
-        <v>249</v>
-      </c>
+      <c r="AC28" s="132"/>
     </row>
     <row r="29" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -3918,9 +3892,7 @@
         <v>44658</v>
       </c>
       <c r="AA29" s="19"/>
-      <c r="AC29" s="130" t="s">
-        <v>250</v>
-      </c>
+      <c r="AC29" s="132"/>
     </row>
     <row r="30" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
@@ -5850,10 +5822,10 @@
         <v>44670</v>
       </c>
       <c r="AC54" s="130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AD54" s="132" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
@@ -9421,9 +9393,7 @@
       <c r="AA101" s="41">
         <v>44651</v>
       </c>
-      <c r="AC101" s="130" t="s">
-        <v>253</v>
-      </c>
+      <c r="AC101" s="132"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="29" t="s">
@@ -9487,9 +9457,7 @@
         <v>44694</v>
       </c>
       <c r="AA102" s="19"/>
-      <c r="AC102" s="130" t="s">
-        <v>253</v>
-      </c>
+      <c r="AC102" s="132"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="45" t="s">
@@ -9555,9 +9523,7 @@
       <c r="AA103" s="41">
         <v>44781</v>
       </c>
-      <c r="AC103" s="130" t="s">
-        <v>253</v>
-      </c>
+      <c r="AC103" s="132"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="45" t="s">
@@ -9623,9 +9589,7 @@
       <c r="AA104" s="41">
         <v>44719</v>
       </c>
-      <c r="AC104" s="130" t="s">
-        <v>253</v>
-      </c>
+      <c r="AC104" s="132"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
@@ -9739,9 +9703,7 @@
       </c>
       <c r="Z106" s="3"/>
       <c r="AA106" s="12"/>
-      <c r="AC106" s="130" t="s">
-        <v>254</v>
-      </c>
+      <c r="AC106" s="132"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
@@ -9981,7 +9943,7 @@
         <v>44697</v>
       </c>
       <c r="AC110" s="130" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.3">
@@ -10040,9 +10002,7 @@
         <v>44623</v>
       </c>
       <c r="AA111" s="26"/>
-      <c r="AC111" s="130" t="s">
-        <v>248</v>
-      </c>
+      <c r="AC111" s="132"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="45" t="s">
@@ -11447,7 +11407,7 @@
       <c r="Z136" s="51"/>
       <c r="AA136" s="51"/>
       <c r="AC136" s="130" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.3">
@@ -11509,7 +11469,7 @@
       <c r="Z137" s="51"/>
       <c r="AA137" s="51"/>
       <c r="AC137" s="130" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.3">
@@ -11571,7 +11531,7 @@
       <c r="Z138" s="51"/>
       <c r="AA138" s="51"/>
       <c r="AC138" s="130" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.3">
@@ -11667,7 +11627,7 @@
       <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.54296875" style="5" customWidth="1"/>
@@ -19640,12 +19600,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19850,20 +19812,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E893AF-698D-428D-8AA3-BDA62406D018}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{019067CC-C744-4AC9-8541-2CCD0412D14B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
+    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19888,12 +19851,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{019067CC-C744-4AC9-8541-2CCD0412D14B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E893AF-698D-428D-8AA3-BDA62406D018}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
-    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>